--- a/tableau/통합매출작성중2024년-3.xlsx
+++ b/tableau/통합매출작성중2024년-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38499523-01D1-4853-A185-350E16CBE7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB1136-FF9B-418C-8F55-2430A54C4A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매출현황작성중" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="79">
   <si>
     <t>시즌</t>
   </si>
@@ -1028,11 +1028,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ADB872-089C-4116-92F7-D7DE0090DDD6}">
-  <dimension ref="A1:Q791"/>
+  <dimension ref="A1:Q822"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A700" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q731" sqref="Q731"/>
+      <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I816" sqref="I816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28815,6 +28815,1463 @@
         <v>110</v>
       </c>
     </row>
+    <row r="792" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>791</v>
+      </c>
+      <c r="B792" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C792" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D792" s="5">
+        <v>3</v>
+      </c>
+      <c r="E792" s="5">
+        <v>1</v>
+      </c>
+      <c r="F792" s="7">
+        <v>8253441</v>
+      </c>
+      <c r="G792" s="7">
+        <v>11441577</v>
+      </c>
+      <c r="H792" s="7">
+        <v>19695018</v>
+      </c>
+      <c r="J792" s="4">
+        <v>6</v>
+      </c>
+      <c r="K792" s="4">
+        <v>35</v>
+      </c>
+      <c r="L792" s="4">
+        <v>1</v>
+      </c>
+      <c r="M792" s="4">
+        <v>6</v>
+      </c>
+      <c r="N792" s="4">
+        <v>2</v>
+      </c>
+      <c r="O792" s="4">
+        <v>2</v>
+      </c>
+      <c r="P792" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="793" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>792</v>
+      </c>
+      <c r="B793" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C793" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D793" s="5">
+        <v>3</v>
+      </c>
+      <c r="E793" s="5">
+        <v>2</v>
+      </c>
+      <c r="F793" s="7">
+        <v>8782533</v>
+      </c>
+      <c r="G793" s="7">
+        <v>7325900</v>
+      </c>
+      <c r="H793" s="7">
+        <v>16108433</v>
+      </c>
+      <c r="J793" s="4">
+        <v>7</v>
+      </c>
+      <c r="K793" s="4">
+        <v>64</v>
+      </c>
+      <c r="L793" s="4">
+        <v>1</v>
+      </c>
+      <c r="M793" s="4">
+        <v>19</v>
+      </c>
+      <c r="N793" s="4">
+        <v>5</v>
+      </c>
+      <c r="O793" s="4">
+        <v>6</v>
+      </c>
+      <c r="P793" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="794" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>793</v>
+      </c>
+      <c r="B794" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C794" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D794" s="5">
+        <v>3</v>
+      </c>
+      <c r="E794" s="5">
+        <v>3</v>
+      </c>
+      <c r="F794" s="7">
+        <v>7397461</v>
+      </c>
+      <c r="G794" s="7">
+        <v>4216029</v>
+      </c>
+      <c r="H794" s="7">
+        <v>11613490</v>
+      </c>
+      <c r="J794" s="4">
+        <v>15</v>
+      </c>
+      <c r="K794" s="4">
+        <v>99</v>
+      </c>
+      <c r="L794" s="4">
+        <v>2</v>
+      </c>
+      <c r="M794" s="4">
+        <v>19</v>
+      </c>
+      <c r="N794" s="4">
+        <v>13</v>
+      </c>
+      <c r="O794" s="4">
+        <v>12</v>
+      </c>
+      <c r="P794" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="795" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>794</v>
+      </c>
+      <c r="B795" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C795" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D795" s="5">
+        <v>3</v>
+      </c>
+      <c r="E795" s="5">
+        <v>4</v>
+      </c>
+      <c r="F795" s="7">
+        <v>9143875</v>
+      </c>
+      <c r="G795" s="7">
+        <v>8475466</v>
+      </c>
+      <c r="H795" s="7">
+        <v>17619341</v>
+      </c>
+      <c r="J795" s="4">
+        <v>20</v>
+      </c>
+      <c r="K795" s="4">
+        <v>92</v>
+      </c>
+      <c r="L795" s="4">
+        <v>12</v>
+      </c>
+      <c r="M795" s="4">
+        <v>16</v>
+      </c>
+      <c r="N795" s="4">
+        <v>13</v>
+      </c>
+      <c r="O795" s="4">
+        <v>14</v>
+      </c>
+      <c r="P795" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="796" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>795</v>
+      </c>
+      <c r="B796" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C796" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D796" s="5">
+        <v>3</v>
+      </c>
+      <c r="E796" s="5">
+        <v>5</v>
+      </c>
+      <c r="F796" s="7">
+        <v>9687590</v>
+      </c>
+      <c r="G796" s="7">
+        <v>8564612</v>
+      </c>
+      <c r="H796" s="7">
+        <v>18252202</v>
+      </c>
+      <c r="J796" s="4">
+        <v>7</v>
+      </c>
+      <c r="K796" s="4">
+        <v>58</v>
+      </c>
+      <c r="L796" s="4">
+        <v>6</v>
+      </c>
+      <c r="M796" s="4">
+        <v>23</v>
+      </c>
+      <c r="N796" s="4">
+        <v>11</v>
+      </c>
+      <c r="O796" s="4">
+        <v>8</v>
+      </c>
+      <c r="P796" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="797" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>796</v>
+      </c>
+      <c r="B797" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C797" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D797" s="5">
+        <v>3</v>
+      </c>
+      <c r="E797" s="5">
+        <v>6</v>
+      </c>
+      <c r="F797" s="7">
+        <v>11059586</v>
+      </c>
+      <c r="G797" s="7">
+        <v>8728274</v>
+      </c>
+      <c r="H797" s="7">
+        <v>19787860</v>
+      </c>
+      <c r="J797" s="4">
+        <v>13</v>
+      </c>
+      <c r="K797" s="4">
+        <v>68</v>
+      </c>
+      <c r="L797" s="4">
+        <v>2</v>
+      </c>
+      <c r="M797" s="4">
+        <v>20</v>
+      </c>
+      <c r="N797" s="4">
+        <v>11</v>
+      </c>
+      <c r="O797" s="4">
+        <v>9</v>
+      </c>
+      <c r="P797" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="798" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A798" s="1">
+        <v>797</v>
+      </c>
+      <c r="B798" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C798" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D798" s="5">
+        <v>3</v>
+      </c>
+      <c r="E798" s="5">
+        <v>7</v>
+      </c>
+      <c r="F798" s="7">
+        <v>10209333</v>
+      </c>
+      <c r="G798" s="7">
+        <v>8323079</v>
+      </c>
+      <c r="H798" s="7">
+        <v>18532412</v>
+      </c>
+      <c r="J798" s="4">
+        <v>19</v>
+      </c>
+      <c r="K798" s="4">
+        <v>85</v>
+      </c>
+      <c r="L798" s="4">
+        <v>10</v>
+      </c>
+      <c r="M798" s="4">
+        <v>30</v>
+      </c>
+      <c r="N798" s="4">
+        <v>13</v>
+      </c>
+      <c r="O798" s="4">
+        <v>10</v>
+      </c>
+      <c r="P798" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="799" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>798</v>
+      </c>
+      <c r="B799" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C799" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D799" s="5">
+        <v>3</v>
+      </c>
+      <c r="E799" s="5">
+        <v>8</v>
+      </c>
+      <c r="F799" s="7">
+        <v>10686142</v>
+      </c>
+      <c r="G799" s="7">
+        <v>9580253</v>
+      </c>
+      <c r="H799" s="7">
+        <v>20266395</v>
+      </c>
+      <c r="J799" s="4">
+        <v>24</v>
+      </c>
+      <c r="K799" s="4">
+        <v>183</v>
+      </c>
+      <c r="L799" s="4">
+        <v>9</v>
+      </c>
+      <c r="M799" s="4">
+        <v>30</v>
+      </c>
+      <c r="N799" s="4">
+        <v>17</v>
+      </c>
+      <c r="O799" s="4">
+        <v>14</v>
+      </c>
+      <c r="P799" s="5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="800" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A800" s="1">
+        <v>799</v>
+      </c>
+      <c r="B800" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C800" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D800" s="5">
+        <v>3</v>
+      </c>
+      <c r="E800" s="5">
+        <v>9</v>
+      </c>
+      <c r="F800" s="7">
+        <v>8473767</v>
+      </c>
+      <c r="G800" s="7">
+        <v>8447931</v>
+      </c>
+      <c r="H800" s="7">
+        <v>16921698</v>
+      </c>
+      <c r="J800" s="4">
+        <v>19</v>
+      </c>
+      <c r="K800" s="4">
+        <v>130</v>
+      </c>
+      <c r="L800" s="4">
+        <v>9</v>
+      </c>
+      <c r="M800" s="4">
+        <v>18</v>
+      </c>
+      <c r="N800" s="4">
+        <v>5</v>
+      </c>
+      <c r="O800" s="4">
+        <v>9</v>
+      </c>
+      <c r="P800" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="801" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>800</v>
+      </c>
+      <c r="B801" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C801" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D801" s="5">
+        <v>3</v>
+      </c>
+      <c r="E801" s="5">
+        <v>10</v>
+      </c>
+      <c r="F801" s="7">
+        <v>7084924</v>
+      </c>
+      <c r="G801" s="7">
+        <v>5050860</v>
+      </c>
+      <c r="H801" s="7">
+        <v>12135784</v>
+      </c>
+      <c r="J801" s="4">
+        <v>7</v>
+      </c>
+      <c r="K801" s="4">
+        <v>101</v>
+      </c>
+      <c r="L801" s="4">
+        <v>0</v>
+      </c>
+      <c r="M801" s="4">
+        <v>14</v>
+      </c>
+      <c r="N801" s="4">
+        <v>12</v>
+      </c>
+      <c r="O801" s="4">
+        <v>8</v>
+      </c>
+      <c r="P801" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="802" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A802" s="1">
+        <v>801</v>
+      </c>
+      <c r="B802" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C802" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D802" s="5">
+        <v>3</v>
+      </c>
+      <c r="E802" s="5">
+        <v>11</v>
+      </c>
+      <c r="F802" s="7">
+        <v>8595713</v>
+      </c>
+      <c r="G802" s="7">
+        <v>7761500</v>
+      </c>
+      <c r="H802" s="7">
+        <v>16357213</v>
+      </c>
+      <c r="J802" s="4">
+        <v>12</v>
+      </c>
+      <c r="K802" s="4">
+        <v>61</v>
+      </c>
+      <c r="L802" s="4">
+        <v>2</v>
+      </c>
+      <c r="M802" s="4">
+        <v>24</v>
+      </c>
+      <c r="N802" s="4">
+        <v>11</v>
+      </c>
+      <c r="O802" s="4">
+        <v>9</v>
+      </c>
+      <c r="P802" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="803" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>802</v>
+      </c>
+      <c r="B803" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C803" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D803" s="5">
+        <v>3</v>
+      </c>
+      <c r="E803" s="5">
+        <v>12</v>
+      </c>
+      <c r="F803" s="7">
+        <v>10199017</v>
+      </c>
+      <c r="G803" s="7">
+        <v>8555112</v>
+      </c>
+      <c r="H803" s="7">
+        <v>18754129</v>
+      </c>
+      <c r="J803" s="4">
+        <v>25</v>
+      </c>
+      <c r="K803" s="4">
+        <v>88</v>
+      </c>
+      <c r="L803" s="4">
+        <v>14</v>
+      </c>
+      <c r="M803" s="4">
+        <v>31</v>
+      </c>
+      <c r="N803" s="4">
+        <v>19</v>
+      </c>
+      <c r="O803" s="4">
+        <v>13</v>
+      </c>
+      <c r="P803" s="5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="804" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A804" s="1">
+        <v>803</v>
+      </c>
+      <c r="B804" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C804" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D804" s="5">
+        <v>3</v>
+      </c>
+      <c r="E804" s="5">
+        <v>13</v>
+      </c>
+      <c r="F804" s="7">
+        <v>10596637</v>
+      </c>
+      <c r="G804" s="7">
+        <v>9166439</v>
+      </c>
+      <c r="H804" s="7">
+        <v>19763076</v>
+      </c>
+      <c r="J804" s="4">
+        <v>23</v>
+      </c>
+      <c r="K804" s="4">
+        <v>182</v>
+      </c>
+      <c r="L804" s="4">
+        <v>13</v>
+      </c>
+      <c r="M804" s="4">
+        <v>24</v>
+      </c>
+      <c r="N804" s="4">
+        <v>20</v>
+      </c>
+      <c r="O804" s="4">
+        <v>20</v>
+      </c>
+      <c r="P804" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="805" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>804</v>
+      </c>
+      <c r="B805" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C805" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D805" s="5">
+        <v>3</v>
+      </c>
+      <c r="E805" s="5">
+        <v>14</v>
+      </c>
+      <c r="F805" s="7">
+        <v>9302937</v>
+      </c>
+      <c r="G805" s="7">
+        <v>8566690</v>
+      </c>
+      <c r="H805" s="7">
+        <v>17869627</v>
+      </c>
+      <c r="J805" s="4">
+        <v>11</v>
+      </c>
+      <c r="K805" s="4">
+        <v>105</v>
+      </c>
+      <c r="L805" s="4">
+        <v>9</v>
+      </c>
+      <c r="M805" s="4">
+        <v>24</v>
+      </c>
+      <c r="N805" s="4">
+        <v>11</v>
+      </c>
+      <c r="O805" s="4">
+        <v>12</v>
+      </c>
+      <c r="P805" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="806" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A806" s="1">
+        <v>805</v>
+      </c>
+      <c r="B806" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C806" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D806" s="5">
+        <v>3</v>
+      </c>
+      <c r="E806" s="5">
+        <v>15</v>
+      </c>
+      <c r="F806" s="7">
+        <v>11406187</v>
+      </c>
+      <c r="G806" s="7">
+        <v>9422052</v>
+      </c>
+      <c r="H806" s="7">
+        <v>20828239</v>
+      </c>
+      <c r="J806" s="4">
+        <v>8</v>
+      </c>
+      <c r="K806" s="4">
+        <v>97</v>
+      </c>
+      <c r="L806" s="4">
+        <v>6</v>
+      </c>
+      <c r="M806" s="4">
+        <v>26</v>
+      </c>
+      <c r="N806" s="4">
+        <v>3</v>
+      </c>
+      <c r="O806" s="4">
+        <v>10</v>
+      </c>
+      <c r="P806" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="807" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>806</v>
+      </c>
+      <c r="B807" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C807" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D807" s="5">
+        <v>3</v>
+      </c>
+      <c r="E807" s="5">
+        <v>16</v>
+      </c>
+      <c r="F807" s="7">
+        <v>8506708</v>
+      </c>
+      <c r="G807" s="7">
+        <v>8855295</v>
+      </c>
+      <c r="H807" s="7">
+        <v>17362003</v>
+      </c>
+      <c r="J807" s="4">
+        <v>17</v>
+      </c>
+      <c r="K807" s="4">
+        <v>90</v>
+      </c>
+      <c r="L807" s="4">
+        <v>5</v>
+      </c>
+      <c r="M807" s="4">
+        <v>20</v>
+      </c>
+      <c r="N807" s="4">
+        <v>6</v>
+      </c>
+      <c r="O807" s="4">
+        <v>12</v>
+      </c>
+      <c r="P807" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="808" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A808" s="1">
+        <v>807</v>
+      </c>
+      <c r="B808" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C808" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D808" s="5">
+        <v>3</v>
+      </c>
+      <c r="E808" s="5">
+        <v>17</v>
+      </c>
+      <c r="F808" s="7">
+        <v>6293705</v>
+      </c>
+      <c r="G808" s="7">
+        <v>4763192</v>
+      </c>
+      <c r="H808" s="7">
+        <v>11056897</v>
+      </c>
+      <c r="J808" s="4">
+        <v>11</v>
+      </c>
+      <c r="K808" s="4">
+        <v>66</v>
+      </c>
+      <c r="L808" s="4">
+        <v>1</v>
+      </c>
+      <c r="M808" s="4">
+        <v>22</v>
+      </c>
+      <c r="N808" s="4">
+        <v>20</v>
+      </c>
+      <c r="O808" s="4">
+        <v>11</v>
+      </c>
+      <c r="P808" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="809" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>808</v>
+      </c>
+      <c r="B809" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C809" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D809" s="5">
+        <v>3</v>
+      </c>
+      <c r="E809" s="5">
+        <v>18</v>
+      </c>
+      <c r="F809" s="7">
+        <v>9793105</v>
+      </c>
+      <c r="G809" s="7">
+        <v>7949183</v>
+      </c>
+      <c r="H809" s="7">
+        <v>17742288</v>
+      </c>
+      <c r="J809" s="4">
+        <v>24</v>
+      </c>
+      <c r="K809" s="4">
+        <v>70</v>
+      </c>
+      <c r="L809" s="4">
+        <v>12</v>
+      </c>
+      <c r="M809" s="4">
+        <v>26</v>
+      </c>
+      <c r="N809" s="4">
+        <v>17</v>
+      </c>
+      <c r="O809" s="4">
+        <v>10</v>
+      </c>
+      <c r="P809" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="810" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A810" s="1">
+        <v>809</v>
+      </c>
+      <c r="B810" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C810" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D810" s="5">
+        <v>3</v>
+      </c>
+      <c r="E810" s="5">
+        <v>19</v>
+      </c>
+      <c r="F810" s="7">
+        <v>10455010</v>
+      </c>
+      <c r="G810" s="7">
+        <v>7962808</v>
+      </c>
+      <c r="H810" s="7">
+        <v>18417818</v>
+      </c>
+      <c r="J810" s="4">
+        <v>44</v>
+      </c>
+      <c r="K810" s="4">
+        <v>200</v>
+      </c>
+      <c r="L810" s="4">
+        <v>20</v>
+      </c>
+      <c r="M810" s="4">
+        <v>36</v>
+      </c>
+      <c r="N810" s="4">
+        <v>24</v>
+      </c>
+      <c r="O810" s="4">
+        <v>17</v>
+      </c>
+      <c r="P810" s="5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="811" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>810</v>
+      </c>
+      <c r="B811" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C811" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D811" s="5">
+        <v>3</v>
+      </c>
+      <c r="E811" s="5">
+        <v>20</v>
+      </c>
+      <c r="F811" s="7">
+        <v>10394245</v>
+      </c>
+      <c r="G811" s="7">
+        <v>8584150</v>
+      </c>
+      <c r="H811" s="7">
+        <v>18978395</v>
+      </c>
+      <c r="J811" s="4">
+        <v>13</v>
+      </c>
+      <c r="K811" s="4">
+        <v>150</v>
+      </c>
+      <c r="L811" s="4">
+        <v>7</v>
+      </c>
+      <c r="M811" s="4">
+        <v>24</v>
+      </c>
+      <c r="N811" s="4">
+        <v>20</v>
+      </c>
+      <c r="O811" s="4">
+        <v>12</v>
+      </c>
+      <c r="P811" s="5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="812" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A812" s="1">
+        <v>811</v>
+      </c>
+      <c r="B812" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C812" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D812" s="5">
+        <v>3</v>
+      </c>
+      <c r="E812" s="5">
+        <v>21</v>
+      </c>
+      <c r="F812" s="7">
+        <v>10700540</v>
+      </c>
+      <c r="G812" s="7">
+        <v>8964864</v>
+      </c>
+      <c r="H812" s="7">
+        <v>19665404</v>
+      </c>
+      <c r="J812" s="4">
+        <v>17</v>
+      </c>
+      <c r="K812" s="4">
+        <v>132</v>
+      </c>
+      <c r="L812" s="4">
+        <v>6</v>
+      </c>
+      <c r="M812" s="4">
+        <v>15</v>
+      </c>
+      <c r="N812" s="4">
+        <v>13</v>
+      </c>
+      <c r="O812" s="4">
+        <v>10</v>
+      </c>
+      <c r="P812" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="813" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>812</v>
+      </c>
+      <c r="B813" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C813" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D813" s="5">
+        <v>3</v>
+      </c>
+      <c r="E813" s="5">
+        <v>22</v>
+      </c>
+      <c r="F813" s="7">
+        <v>9059412</v>
+      </c>
+      <c r="G813" s="7">
+        <v>8944929</v>
+      </c>
+      <c r="H813" s="7">
+        <v>18004341</v>
+      </c>
+      <c r="J813" s="4">
+        <v>1</v>
+      </c>
+      <c r="K813" s="4">
+        <v>47</v>
+      </c>
+      <c r="L813" s="4">
+        <v>5</v>
+      </c>
+      <c r="M813" s="4">
+        <v>13</v>
+      </c>
+      <c r="N813" s="4">
+        <v>5</v>
+      </c>
+      <c r="O813" s="4">
+        <v>4</v>
+      </c>
+      <c r="P813" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="814" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A814" s="1">
+        <v>813</v>
+      </c>
+      <c r="B814" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C814" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D814" s="5">
+        <v>3</v>
+      </c>
+      <c r="E814" s="5">
+        <v>23</v>
+      </c>
+      <c r="F814" s="7">
+        <v>9652387</v>
+      </c>
+      <c r="G814" s="7">
+        <v>8302516</v>
+      </c>
+      <c r="H814" s="7">
+        <v>17954903</v>
+      </c>
+      <c r="J814" s="4">
+        <v>32</v>
+      </c>
+      <c r="K814" s="4">
+        <v>208</v>
+      </c>
+      <c r="L814" s="4">
+        <v>15</v>
+      </c>
+      <c r="M814" s="4">
+        <v>36</v>
+      </c>
+      <c r="N814" s="4">
+        <v>24</v>
+      </c>
+      <c r="O814" s="4">
+        <v>24</v>
+      </c>
+      <c r="P814" s="5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="815" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>814</v>
+      </c>
+      <c r="B815" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C815" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D815" s="5">
+        <v>3</v>
+      </c>
+      <c r="E815" s="5">
+        <v>24</v>
+      </c>
+      <c r="F815" s="7">
+        <v>7368874</v>
+      </c>
+      <c r="G815" s="7">
+        <v>5280219</v>
+      </c>
+      <c r="H815" s="7">
+        <v>12649093</v>
+      </c>
+      <c r="J815" s="4">
+        <v>8</v>
+      </c>
+      <c r="K815" s="4">
+        <v>118</v>
+      </c>
+      <c r="L815" s="4">
+        <v>2</v>
+      </c>
+      <c r="M815" s="4">
+        <v>16</v>
+      </c>
+      <c r="N815" s="4">
+        <v>8</v>
+      </c>
+      <c r="O815" s="4">
+        <v>5</v>
+      </c>
+      <c r="P815" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="816" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A816" s="1">
+        <v>815</v>
+      </c>
+      <c r="B816" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C816" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D816" s="5">
+        <v>3</v>
+      </c>
+      <c r="E816" s="5">
+        <v>25</v>
+      </c>
+      <c r="F816" s="7">
+        <v>9658422</v>
+      </c>
+      <c r="G816" s="7">
+        <v>8571757</v>
+      </c>
+      <c r="H816" s="7">
+        <v>18230179</v>
+      </c>
+      <c r="J816" s="4">
+        <v>1</v>
+      </c>
+      <c r="K816" s="4">
+        <v>22</v>
+      </c>
+      <c r="L816" s="4">
+        <v>4</v>
+      </c>
+      <c r="M816" s="4">
+        <v>5</v>
+      </c>
+      <c r="N816" s="4">
+        <v>8</v>
+      </c>
+      <c r="O816" s="4">
+        <v>2</v>
+      </c>
+      <c r="P816" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="817" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>816</v>
+      </c>
+      <c r="B817" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C817" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D817" s="5">
+        <v>3</v>
+      </c>
+      <c r="E817" s="5">
+        <v>26</v>
+      </c>
+      <c r="F817" s="7">
+        <v>10773842</v>
+      </c>
+      <c r="G817" s="7">
+        <v>8072654</v>
+      </c>
+      <c r="H817" s="7">
+        <v>18846496</v>
+      </c>
+      <c r="J817" s="4">
+        <v>25</v>
+      </c>
+      <c r="K817" s="4">
+        <v>96</v>
+      </c>
+      <c r="L817" s="4">
+        <v>9</v>
+      </c>
+      <c r="M817" s="4">
+        <v>26</v>
+      </c>
+      <c r="N817" s="4">
+        <v>16</v>
+      </c>
+      <c r="O817" s="4">
+        <v>9</v>
+      </c>
+      <c r="P817" s="5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="818" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A818" s="1">
+        <v>817</v>
+      </c>
+      <c r="B818" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C818" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D818" s="5">
+        <v>3</v>
+      </c>
+      <c r="E818" s="5">
+        <v>27</v>
+      </c>
+      <c r="F818" s="7">
+        <v>9854849</v>
+      </c>
+      <c r="G818" s="7">
+        <v>8208246</v>
+      </c>
+      <c r="H818" s="7">
+        <v>18063095</v>
+      </c>
+      <c r="J818" s="4">
+        <v>13</v>
+      </c>
+      <c r="K818" s="4">
+        <v>56</v>
+      </c>
+      <c r="L818" s="4">
+        <v>4</v>
+      </c>
+      <c r="M818" s="4">
+        <v>26</v>
+      </c>
+      <c r="N818" s="4">
+        <v>9</v>
+      </c>
+      <c r="O818" s="4">
+        <v>9</v>
+      </c>
+      <c r="P818" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="819" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>818</v>
+      </c>
+      <c r="B819" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C819" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D819" s="5">
+        <v>3</v>
+      </c>
+      <c r="E819" s="5">
+        <v>28</v>
+      </c>
+      <c r="F819" s="7">
+        <v>9991441</v>
+      </c>
+      <c r="G819" s="7">
+        <v>8860091</v>
+      </c>
+      <c r="H819" s="7">
+        <v>18851532</v>
+      </c>
+      <c r="J819" s="4">
+        <v>13</v>
+      </c>
+      <c r="K819" s="4">
+        <v>50</v>
+      </c>
+      <c r="L819" s="4">
+        <v>6</v>
+      </c>
+      <c r="M819" s="4">
+        <v>24</v>
+      </c>
+      <c r="N819" s="4">
+        <v>10</v>
+      </c>
+      <c r="O819" s="4">
+        <v>9</v>
+      </c>
+      <c r="P819" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="820" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A820" s="1">
+        <v>819</v>
+      </c>
+      <c r="B820" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C820" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D820" s="5">
+        <v>3</v>
+      </c>
+      <c r="E820" s="5">
+        <v>29</v>
+      </c>
+      <c r="F820" s="7">
+        <v>11761486</v>
+      </c>
+      <c r="G820" s="7">
+        <v>9358615</v>
+      </c>
+      <c r="H820" s="7">
+        <v>21120101</v>
+      </c>
+      <c r="J820" s="4">
+        <v>37</v>
+      </c>
+      <c r="K820" s="4">
+        <v>193</v>
+      </c>
+      <c r="L820" s="4">
+        <v>19</v>
+      </c>
+      <c r="M820" s="4">
+        <v>41</v>
+      </c>
+      <c r="N820" s="4">
+        <v>27</v>
+      </c>
+      <c r="O820" s="4">
+        <v>20</v>
+      </c>
+      <c r="P820" s="5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="821" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>820</v>
+      </c>
+      <c r="B821" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C821" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D821" s="5">
+        <v>3</v>
+      </c>
+      <c r="E821" s="5">
+        <v>30</v>
+      </c>
+      <c r="F821" s="7">
+        <v>9554946</v>
+      </c>
+      <c r="G821" s="7">
+        <v>9721278</v>
+      </c>
+      <c r="H821" s="7">
+        <v>19276224</v>
+      </c>
+      <c r="J821" s="4">
+        <v>19</v>
+      </c>
+      <c r="K821" s="4">
+        <v>163</v>
+      </c>
+      <c r="L821" s="4">
+        <v>10</v>
+      </c>
+      <c r="M821" s="4">
+        <v>30</v>
+      </c>
+      <c r="N821" s="4">
+        <v>25</v>
+      </c>
+      <c r="O821" s="4">
+        <v>14</v>
+      </c>
+      <c r="P821" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="822" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A822" s="1">
+        <v>821</v>
+      </c>
+      <c r="B822" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C822" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D822" s="5">
+        <v>3</v>
+      </c>
+      <c r="E822" s="5">
+        <v>31</v>
+      </c>
+      <c r="F822" s="7">
+        <v>6391350</v>
+      </c>
+      <c r="G822" s="7">
+        <v>814639</v>
+      </c>
+      <c r="H822" s="7">
+        <v>7205989</v>
+      </c>
+      <c r="J822" s="4">
+        <v>9</v>
+      </c>
+      <c r="K822" s="4">
+        <v>134</v>
+      </c>
+      <c r="L822" s="4">
+        <v>3</v>
+      </c>
+      <c r="M822" s="4">
+        <v>22</v>
+      </c>
+      <c r="N822" s="4">
+        <v>10</v>
+      </c>
+      <c r="O822" s="4">
+        <v>4</v>
+      </c>
+      <c r="P822" s="5">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
